--- a/Warehouse/testing/EE/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/EE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no consensus.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no clear agreement on what movie to show on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The committee could not reach a decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie was not finalized.
+MSG: The decision has been recorded, and no movie will be acquired for Friday based on the conversation.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made.
+MSG: The decision-making process has concluded without a choice of movie for Friday. No movie will be selected at this time.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. There was no agreement on which movie to show on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without any clear plan for what movie will be shown on Friday, leading to no decision being made.
+MSG: The conversation ended without a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
